--- a/data/pca/factorExposure/factorExposure_2012-12-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-12-14.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>6.086761523347492e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>0.001842962941048007</v>
+      </c>
+      <c r="C2">
+        <v>-0.03139083295380957</v>
+      </c>
+      <c r="D2">
+        <v>0.004647077582045417</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.0005091092287945742</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>-0.006388332027626569</v>
+      </c>
+      <c r="C4">
+        <v>-0.08390757189014636</v>
+      </c>
+      <c r="D4">
+        <v>0.07776373675222487</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.0005523954599160058</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>-0.01442721520010179</v>
+      </c>
+      <c r="C6">
+        <v>-0.1137674775923081</v>
+      </c>
+      <c r="D6">
+        <v>0.03354586402351432</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.001480431867964074</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>-0.005187225866613037</v>
+      </c>
+      <c r="C7">
+        <v>-0.05844756203158464</v>
+      </c>
+      <c r="D7">
+        <v>0.03118774227529617</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>-0.001034026595667496</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>-0.00587860210623967</v>
+      </c>
+      <c r="C8">
+        <v>-0.03769030832469346</v>
+      </c>
+      <c r="D8">
+        <v>0.04033594534258617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.003238158108959784</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>-0.004565124608956494</v>
+      </c>
+      <c r="C9">
+        <v>-0.07036678472508744</v>
+      </c>
+      <c r="D9">
+        <v>0.07260169386945775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.003175177395684505</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>-0.005436492562568246</v>
+      </c>
+      <c r="C10">
+        <v>-0.05871369185846521</v>
+      </c>
+      <c r="D10">
+        <v>-0.1974981604003146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.002074440475490861</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>-0.005856466568505169</v>
+      </c>
+      <c r="C11">
+        <v>-0.07958431857329477</v>
+      </c>
+      <c r="D11">
+        <v>0.05911082398581304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.0006790529866985208</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>-0.004182970630877844</v>
+      </c>
+      <c r="C12">
+        <v>-0.06403840034772329</v>
+      </c>
+      <c r="D12">
+        <v>0.04582470538202395</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.002114079084079534</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>-0.009101869437706833</v>
+      </c>
+      <c r="C13">
+        <v>-0.06865596709698016</v>
+      </c>
+      <c r="D13">
+        <v>0.05609454525162856</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.0007107829924510585</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>-0.001646828184340201</v>
+      </c>
+      <c r="C14">
+        <v>-0.04540055047542033</v>
+      </c>
+      <c r="D14">
+        <v>0.003634664697847514</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.0006340410811453126</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>-0.006126829673326842</v>
+      </c>
+      <c r="C15">
+        <v>-0.04208691920560592</v>
+      </c>
+      <c r="D15">
+        <v>0.0297353225512785</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.0004926885777611311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>-0.005150768674564766</v>
+      </c>
+      <c r="C16">
+        <v>-0.06492093614011664</v>
+      </c>
+      <c r="D16">
+        <v>0.04863549534484274</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>-0.0006196823463530128</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>-0.009099723564448251</v>
+      </c>
+      <c r="C20">
+        <v>-0.06554456687640345</v>
+      </c>
+      <c r="D20">
+        <v>0.04252574892275553</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.00574451902828789</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>-0.01005144184677744</v>
+      </c>
+      <c r="C21">
+        <v>-0.02089269574347184</v>
+      </c>
+      <c r="D21">
+        <v>0.03828909760926189</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01578862590796665</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.006540840081486048</v>
+      </c>
+      <c r="C22">
+        <v>-0.09396800050734541</v>
+      </c>
+      <c r="D22">
+        <v>0.110948962385358</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01608618770476259</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>0.00635651355894281</v>
+      </c>
+      <c r="C23">
+        <v>-0.09478207500347126</v>
+      </c>
+      <c r="D23">
+        <v>0.1109737920164616</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001072410417473294</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>-0.005616128422015952</v>
+      </c>
+      <c r="C24">
+        <v>-0.07624186975333049</v>
+      </c>
+      <c r="D24">
+        <v>0.06291070801104362</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003776581793348736</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>-0.003136025479906233</v>
+      </c>
+      <c r="C25">
+        <v>-0.07837581989179762</v>
+      </c>
+      <c r="D25">
+        <v>0.06512342282808076</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.00431684771708205</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>-0.003739334932128324</v>
+      </c>
+      <c r="C26">
+        <v>-0.04121554713648476</v>
+      </c>
+      <c r="D26">
+        <v>0.02307189458846171</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.003772304648680556</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>0.000768936330829622</v>
+      </c>
+      <c r="C28">
+        <v>-0.1072996406769247</v>
+      </c>
+      <c r="D28">
+        <v>-0.3180787178551455</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001112008329277975</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>-0.003477700297506866</v>
+      </c>
+      <c r="C29">
+        <v>-0.05123857503728917</v>
+      </c>
+      <c r="D29">
+        <v>0.006633680871002897</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.002525844265519659</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>-0.009776421343335309</v>
+      </c>
+      <c r="C30">
+        <v>-0.1416783992677256</v>
+      </c>
+      <c r="D30">
+        <v>0.1015873806555066</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-0.00108158671073907</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>-0.006308165813213992</v>
+      </c>
+      <c r="C31">
+        <v>-0.04440593402498856</v>
+      </c>
+      <c r="D31">
+        <v>0.02856341417516991</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>-0.0009571948877055867</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>-0.004206954385308027</v>
+      </c>
+      <c r="C32">
+        <v>-0.0398769208238326</v>
+      </c>
+      <c r="D32">
+        <v>0.0206770657958503</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.002145492581498707</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>-0.008623522108381694</v>
+      </c>
+      <c r="C33">
+        <v>-0.08640745839260897</v>
+      </c>
+      <c r="D33">
+        <v>0.06380108451163725</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004078091081320006</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>-0.004074168652772096</v>
+      </c>
+      <c r="C34">
+        <v>-0.05792526504156925</v>
+      </c>
+      <c r="D34">
+        <v>0.0532580877876935</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.001093675143666017</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>-0.005064867499148096</v>
+      </c>
+      <c r="C35">
+        <v>-0.04027781174842956</v>
+      </c>
+      <c r="D35">
+        <v>0.01790786264898149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.003616260997124802</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>0.00106437695508974</v>
+      </c>
+      <c r="C36">
+        <v>-0.02463875690921647</v>
+      </c>
+      <c r="D36">
+        <v>0.02190526121483499</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002403639933981456</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>-0.009495340650343428</v>
+      </c>
+      <c r="C38">
+        <v>-0.03416329017757873</v>
+      </c>
+      <c r="D38">
+        <v>0.01575718067173102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01081038292782229</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>0.0003258304861007874</v>
+      </c>
+      <c r="C39">
+        <v>-0.1156273981417035</v>
+      </c>
+      <c r="D39">
+        <v>0.07516671941418115</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009206491337935409</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>-0.002859860630184509</v>
+      </c>
+      <c r="C40">
+        <v>-0.09016611129409544</v>
+      </c>
+      <c r="D40">
+        <v>0.01257668196224189</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>3.231737588783851e-05</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>-0.007369161645251612</v>
+      </c>
+      <c r="C41">
+        <v>-0.03821830840338059</v>
+      </c>
+      <c r="D41">
+        <v>0.03686890114935403</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.002855365319696006</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>-0.00418572936729094</v>
+      </c>
+      <c r="C43">
+        <v>-0.05356927709015518</v>
+      </c>
+      <c r="D43">
+        <v>0.02486454836101546</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.004239653204276777</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>-0.003554988501442198</v>
+      </c>
+      <c r="C44">
+        <v>-0.1094968012310122</v>
+      </c>
+      <c r="D44">
+        <v>0.06650953671455052</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.0009858756648715862</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>-0.002311464597497949</v>
+      </c>
+      <c r="C46">
+        <v>-0.03316345204797554</v>
+      </c>
+      <c r="D46">
+        <v>0.03441109293546108</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>1.918000334942723e-05</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>-0.002822015217609417</v>
+      </c>
+      <c r="C47">
+        <v>-0.03763600147309856</v>
+      </c>
+      <c r="D47">
+        <v>0.02204500129955308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003866174126004887</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>-0.006760031880766597</v>
+      </c>
+      <c r="C48">
+        <v>-0.03106864975695928</v>
+      </c>
+      <c r="D48">
+        <v>0.03289041603829113</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0108331984307167</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>-0.01582725411252851</v>
+      </c>
+      <c r="C49">
+        <v>-0.1851426808791298</v>
+      </c>
+      <c r="D49">
+        <v>0.01570105589293272</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001395588373414504</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>-0.003733519981156978</v>
+      </c>
+      <c r="C50">
+        <v>-0.04350702430722221</v>
+      </c>
+      <c r="D50">
+        <v>0.03533856227277465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0009282918175279386</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>-0.00450955344807545</v>
+      </c>
+      <c r="C51">
+        <v>-0.026180245843764</v>
+      </c>
+      <c r="D51">
+        <v>0.02039389530975807</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.001952557930231813</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>-0.02130678087958321</v>
+      </c>
+      <c r="C53">
+        <v>-0.1698298293905796</v>
+      </c>
+      <c r="D53">
+        <v>0.02570442621241283</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.001268159946489719</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>-0.008867654705261829</v>
+      </c>
+      <c r="C54">
+        <v>-0.05385875196512725</v>
+      </c>
+      <c r="D54">
+        <v>0.0448604644244889</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.002928773137876511</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>-0.009864913602443206</v>
+      </c>
+      <c r="C55">
+        <v>-0.1094068510634682</v>
+      </c>
+      <c r="D55">
+        <v>0.0388348830426963</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003664006816328449</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>-0.02043713076952664</v>
+      </c>
+      <c r="C56">
+        <v>-0.1740618125059645</v>
+      </c>
+      <c r="D56">
+        <v>0.02028816132946586</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.006395279580586673</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>-0.01963859669600442</v>
+      </c>
+      <c r="C58">
+        <v>-0.1104379401836814</v>
+      </c>
+      <c r="D58">
+        <v>0.05885787686006463</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.005301471286746246</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>-0.01008688902604814</v>
+      </c>
+      <c r="C59">
+        <v>-0.1655548724127412</v>
+      </c>
+      <c r="D59">
+        <v>-0.32746079114415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.002790465584983561</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>-0.02456926201712558</v>
+      </c>
+      <c r="C60">
+        <v>-0.2225302367505515</v>
+      </c>
+      <c r="D60">
+        <v>0.03556882388397466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01327291436870127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>0.001591086890842409</v>
+      </c>
+      <c r="C61">
+        <v>-0.09446967798632673</v>
+      </c>
+      <c r="D61">
+        <v>0.05456362631526083</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1624886625760052</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>-0.1453175637626705</v>
+      </c>
+      <c r="C62">
+        <v>-0.09447084640378346</v>
+      </c>
+      <c r="D62">
+        <v>0.04032280825157819</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.0003330725136944776</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>-0.006412006255290531</v>
+      </c>
+      <c r="C63">
+        <v>-0.05478626768699587</v>
+      </c>
+      <c r="D63">
+        <v>0.02680483899607933</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.00029082697866231</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>-0.01552600316750006</v>
+      </c>
+      <c r="C64">
+        <v>-0.1052632739977155</v>
+      </c>
+      <c r="D64">
+        <v>0.05821939998159949</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.003870646609425926</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>-0.01830427223994693</v>
+      </c>
+      <c r="C65">
+        <v>-0.1244345392428979</v>
+      </c>
+      <c r="D65">
+        <v>0.0262332120941552</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.006478714879495999</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>-0.01333576119311362</v>
+      </c>
+      <c r="C66">
+        <v>-0.1593990733730453</v>
+      </c>
+      <c r="D66">
+        <v>0.1105759337456228</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003926496319610459</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>-0.01571891434962003</v>
+      </c>
+      <c r="C67">
+        <v>-0.0651166794206731</v>
+      </c>
+      <c r="D67">
+        <v>0.02694696663972947</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.004993442664455843</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>-0.0007806130401331047</v>
+      </c>
+      <c r="C68">
+        <v>-0.08732927208159162</v>
+      </c>
+      <c r="D68">
+        <v>-0.2611062914806851</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.001743923662041004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>-0.006321575129697075</v>
+      </c>
+      <c r="C69">
+        <v>-0.05035731128841663</v>
+      </c>
+      <c r="D69">
+        <v>0.0385585940735164</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.000283206616348672</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>-0.001814382948207015</v>
+      </c>
+      <c r="C70">
+        <v>-0.002708499226628858</v>
+      </c>
+      <c r="D70">
+        <v>0.000291665325102397</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.0008544097162204464</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>-0.005895177525646373</v>
+      </c>
+      <c r="C71">
+        <v>-0.09489337214121568</v>
+      </c>
+      <c r="D71">
+        <v>-0.3065562683614877</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.003146274309852164</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>-0.01651337792151668</v>
+      </c>
+      <c r="C72">
+        <v>-0.1533423363114987</v>
+      </c>
+      <c r="D72">
+        <v>0.01716653224609295</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.009996986307440262</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>-0.03137374516413125</v>
+      </c>
+      <c r="C73">
+        <v>-0.2793061820988736</v>
+      </c>
+      <c r="D73">
+        <v>0.05715482492569366</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.004317662611439852</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>-0.002196043579550431</v>
+      </c>
+      <c r="C74">
+        <v>-0.1045469294756211</v>
+      </c>
+      <c r="D74">
+        <v>0.0359171335719046</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.001843789457882371</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>-0.01128278049194819</v>
+      </c>
+      <c r="C75">
+        <v>-0.1244700455808061</v>
+      </c>
+      <c r="D75">
+        <v>0.02631412468906014</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009606551241333694</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>-0.0221102277393861</v>
+      </c>
+      <c r="C76">
+        <v>-0.1485419877577576</v>
+      </c>
+      <c r="D76">
+        <v>0.0582600823687467</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>-0.001941718089868461</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>-0.02368184838557141</v>
+      </c>
+      <c r="C77">
+        <v>-0.1211969252731118</v>
+      </c>
+      <c r="D77">
+        <v>0.08413124750229524</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001304003243564849</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>-0.01498091667776299</v>
+      </c>
+      <c r="C78">
+        <v>-0.09579232767434144</v>
+      </c>
+      <c r="D78">
+        <v>0.07171267731395617</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02404698473302794</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>-0.03801394368403195</v>
+      </c>
+      <c r="C79">
+        <v>-0.1566115600705127</v>
+      </c>
+      <c r="D79">
+        <v>0.03259638239085552</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.006931005520342356</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>-0.01040589171829178</v>
+      </c>
+      <c r="C80">
+        <v>-0.03944560550385953</v>
+      </c>
+      <c r="D80">
+        <v>0.02872241071312644</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>-0.001180581053466623</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>-0.01561547651379312</v>
+      </c>
+      <c r="C81">
+        <v>-0.1269148698506735</v>
+      </c>
+      <c r="D81">
+        <v>0.04082446204599023</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.006180759182620088</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>-0.02017375184230179</v>
+      </c>
+      <c r="C82">
+        <v>-0.141502233610142</v>
+      </c>
+      <c r="D82">
+        <v>0.03426782692252733</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008617357486643164</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>-0.01008034678836993</v>
+      </c>
+      <c r="C83">
+        <v>-0.05526526090714518</v>
+      </c>
+      <c r="D83">
+        <v>0.05443206446609258</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01362909974243788</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>-0.01168677089320243</v>
+      </c>
+      <c r="C84">
+        <v>-0.03645354270794888</v>
+      </c>
+      <c r="D84">
+        <v>-0.006175783542732158</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.01417094771025884</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>-0.02857278638610952</v>
+      </c>
+      <c r="C85">
+        <v>-0.1242506306165749</v>
+      </c>
+      <c r="D85">
+        <v>0.04622456699098737</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.0009004114271643378</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>-0.005913421389764915</v>
+      </c>
+      <c r="C86">
+        <v>-0.04947104139285404</v>
+      </c>
+      <c r="D86">
+        <v>0.02870132890411742</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.003088150821282011</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>-0.01030995796108632</v>
+      </c>
+      <c r="C87">
+        <v>-0.1275921075874019</v>
+      </c>
+      <c r="D87">
+        <v>0.07389221273365125</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01130040546700487</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>0.00280996994631745</v>
+      </c>
+      <c r="C88">
+        <v>-0.06490515547934864</v>
+      </c>
+      <c r="D88">
+        <v>0.01828717449685379</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01184685314156862</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>0.001002881182965402</v>
+      </c>
+      <c r="C89">
+        <v>-0.1474746682145897</v>
+      </c>
+      <c r="D89">
+        <v>-0.3325216779149945</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.0007418039437881043</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>-0.007207683556396604</v>
+      </c>
+      <c r="C90">
+        <v>-0.1213951185866759</v>
+      </c>
+      <c r="D90">
+        <v>-0.319021158620299</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001010564294513536</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>-0.01058944370781922</v>
+      </c>
+      <c r="C91">
+        <v>-0.1003472553224723</v>
+      </c>
+      <c r="D91">
+        <v>0.02063567917440718</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.006107089039017841</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>-0.001308344166005196</v>
+      </c>
+      <c r="C92">
+        <v>-0.1364311880899737</v>
+      </c>
+      <c r="D92">
+        <v>-0.3259289751201104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.000838734120386055</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>-0.005115570013648305</v>
+      </c>
+      <c r="C93">
+        <v>-0.1055567189978684</v>
+      </c>
+      <c r="D93">
+        <v>-0.3012977875931288</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.004491703501157616</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>-0.02289460011861254</v>
+      </c>
+      <c r="C94">
+        <v>-0.146539927843803</v>
+      </c>
+      <c r="D94">
+        <v>0.05378827775809175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004490602095128441</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>-0.0165807111573964</v>
+      </c>
+      <c r="C95">
+        <v>-0.1246389546107955</v>
+      </c>
+      <c r="D95">
+        <v>0.05950424717963469</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>-0.002007811585508215</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>-0.03677450411150787</v>
+      </c>
+      <c r="C97">
+        <v>-0.2135175287707769</v>
+      </c>
+      <c r="D97">
+        <v>-0.005673438153759963</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.001668382398005338</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>-0.03727530531805078</v>
+      </c>
+      <c r="C98">
+        <v>-0.2496513581786356</v>
+      </c>
+      <c r="D98">
+        <v>0.04974586084174146</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9851161743909439</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>-0.9818886018243583</v>
+      </c>
+      <c r="C99">
+        <v>0.1189396206626733</v>
+      </c>
+      <c r="D99">
+        <v>-0.02701615365814081</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001012280361136019</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>-0.003515685044067187</v>
+      </c>
+      <c r="C101">
+        <v>-0.05141735634100305</v>
+      </c>
+      <c r="D101">
+        <v>0.006760418020647258</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
